--- a/three snails/woniuboss2.5_UI/woniuboss_lj/woniuboss/testdata/woniuboss_test_info.xlsx
+++ b/three snails/woniuboss2.5_UI/woniuboss_lj/woniuboss/testdata/woniuboss_test_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="16620" windowHeight="8970" activeTab="4"/>
+    <workbookView windowWidth="17040" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>用例编号</t>
   </si>
@@ -282,13 +282,57 @@
   </si>
   <si>
     <r>
+      <t>files_path=E:\</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专属</t>
+    </r>
+    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <charset val="134"/>
       </rPr>
-      <t>files_path=E:\\</t>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>简历</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.xls</t>
+    </r>
+  </si>
+  <si>
+    <t>upload_successful</t>
+  </si>
+  <si>
+    <t>upload_002</t>
+  </si>
+  <si>
+    <t>传入错误的文件</t>
+  </si>
+  <si>
+    <r>
+      <t>files_path=E:\</t>
     </r>
     <r>
       <rPr>
@@ -324,62 +368,6 @@
         <rFont val="Tahoma"/>
         <charset val="134"/>
       </rPr>
-      <t>.xls</t>
-    </r>
-  </si>
-  <si>
-    <t>upload_successful</t>
-  </si>
-  <si>
-    <t>upload_002</t>
-  </si>
-  <si>
-    <t>传入错误的文件</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>files_path=E:\\</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专属</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>简历</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <charset val="134"/>
-      </rPr>
       <t>.xlsx</t>
     </r>
   </si>
@@ -391,6 +379,11 @@
   </si>
   <si>
     <t>咨询部正确的日期参数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stime=2020-04-06
+etime=2020-04-06
+</t>
   </si>
   <si>
     <t>query_console_002</t>
@@ -455,6 +448,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>res_name=</t>
     </r>
     <r>
@@ -510,6 +509,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>res_name=</t>
     </r>
     <r>
@@ -530,6 +535,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>role_name=</t>
     </r>
     <r>
@@ -569,6 +580,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>add_role_name=</t>
     </r>
     <r>
@@ -605,6 +622,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>edit_role_name=</t>
     </r>
     <r>
@@ -647,6 +670,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>username_role=WNCD000
 username_des=</t>
     </r>
@@ -665,6 +694,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>dict_value=</t>
     </r>
     <r>
@@ -721,6 +756,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
       <t>dict_typename=</t>
     </r>
     <r>
@@ -778,9 +819,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
@@ -850,6 +891,13 @@
       <color rgb="FF6A8759"/>
       <name val="Consolas"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -875,6 +923,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -893,9 +979,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -916,6 +1002,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -923,51 +1016,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -981,21 +1037,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="宋体"/>
@@ -1041,12 +1082,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1059,49 +1154,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,102 +1251,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,6 +1335,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -1324,27 +1376,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1353,133 +1394,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -1489,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1543,9 +1584,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1981,17 +2019,17 @@
       </c>
     </row>
     <row r="2" ht="38.25" spans="1:5">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="36" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2008,7 +2046,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2035,14 +2073,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="22" customFormat="1" ht="96" customHeight="1" spans="1:5">
-      <c r="A2" s="25" t="s">
+    <row r="2" s="21" customFormat="1" ht="96" customHeight="1" spans="1:5">
+      <c r="A2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
@@ -2050,14 +2088,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="23" customFormat="1" ht="93" customHeight="1" spans="1:5">
-      <c r="A3" s="25" t="s">
+    <row r="3" s="22" customFormat="1" ht="93" customHeight="1" spans="1:5">
+      <c r="A3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="28"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="14" t="s">
         <v>15</v>
       </c>
@@ -2066,13 +2104,13 @@
       </c>
     </row>
     <row r="4" s="15" customFormat="1" ht="99" customHeight="1" spans="1:5">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="14" t="s">
         <v>18</v>
       </c>
@@ -2080,11 +2118,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" s="24" customFormat="1" spans="1:4">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+    <row r="5" s="23" customFormat="1" spans="1:4">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
     </row>
     <row r="6" s="15" customFormat="1" ht="270" customHeight="1" spans="1:5">
       <c r="A6" s="15" t="s">
@@ -2093,39 +2131,39 @@
       <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="30" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="24" customFormat="1" ht="13.5"/>
-    <row r="8" s="22" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A8" s="25" t="s">
+    <row r="7" s="23" customFormat="1" ht="13.5"/>
+    <row r="8" s="21" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" s="23" customFormat="1" ht="28.5" spans="1:5">
-      <c r="A9" s="25" t="s">
+    <row r="9" s="22" customFormat="1" ht="28.5" spans="1:5">
+      <c r="A9" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2140,8 +2178,8 @@
   <sheetPr/>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.25" defaultRowHeight="40" customHeight="1" outlineLevelCol="4"/>
@@ -2174,7 +2212,7 @@
         <v>33</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>12</v>
@@ -2182,13 +2220,13 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="21" t="s">
         <v>36</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>12</v>
@@ -2252,30 +2290,30 @@
     </row>
     <row r="2" ht="40" customHeight="1" spans="1:5">
       <c r="A2" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" ht="40" customHeight="1" spans="1:5">
       <c r="A3" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" s="9" customFormat="1" ht="15" customHeight="1" spans="1:5">
@@ -2286,30 +2324,30 @@
     </row>
     <row r="5" ht="40" customHeight="1" spans="1:5">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="40" customHeight="1" spans="1:5">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2323,7 +2361,7 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -2356,13 +2394,13 @@
     </row>
     <row r="2" ht="42.75" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>23</v>
@@ -2371,43 +2409,43 @@
     <row r="3" s="1" customFormat="1"/>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1"/>
     <row r="6" ht="28.5" spans="1:5">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1"/>
     <row r="8" ht="28.5" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
@@ -2416,28 +2454,28 @@
     <row r="9" s="2" customFormat="1"/>
     <row r="10" ht="28.5" spans="1:5">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1"/>
     <row r="12" ht="28.5" spans="1:5">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>12</v>
@@ -2446,28 +2484,28 @@
     <row r="13" s="2" customFormat="1"/>
     <row r="14" ht="56.25" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1"/>
     <row r="16" ht="57" spans="1:5">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>23</v>
@@ -2476,16 +2514,16 @@
     <row r="17" s="2" customFormat="1"/>
     <row r="18" ht="57" spans="1:5">
       <c r="A18" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
